--- a/heliostrome/jip_project/results/weekly_Pump_Data.xlsx
+++ b/heliostrome/jip_project/results/weekly_Pump_Data.xlsx
@@ -461,10 +461,10 @@
         <v>38389</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>74.19408395296784</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>235.6160305053561</v>
       </c>
     </row>
     <row r="3">
@@ -472,10 +472,10 @@
         <v>38396</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>89.43834202308427</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>322.8997759563496</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         <v>38403</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>81.40379101139183</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>295.5660860094558</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>38410</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>86.83916451945294</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>321.1505416764683</v>
       </c>
     </row>
     <row r="6">
@@ -505,10 +505,10 @@
         <v>38417</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>12.89914685508182</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>48.79759880703651</v>
       </c>
     </row>
     <row r="7">
@@ -549,10 +549,10 @@
         <v>38445</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>33.88210938269473</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>144.5162077920627</v>
       </c>
     </row>
     <row r="11">
@@ -560,10 +560,10 @@
         <v>38452</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>70.47520533542121</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>273.6202019474335</v>
       </c>
     </row>
     <row r="12">
@@ -571,10 +571,10 @@
         <v>38459</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>76.36126498340384</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>326.9761422393509</v>
       </c>
     </row>
     <row r="13">
@@ -582,10 +582,10 @@
         <v>38466</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>67.29923937340671</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>320.7905813088454</v>
       </c>
     </row>
     <row r="14">
@@ -593,10 +593,10 @@
         <v>38473</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>68.12926509896874</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>284.4968567438901</v>
       </c>
     </row>
     <row r="15">
@@ -604,10 +604,10 @@
         <v>38480</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>76.68185093707488</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>295.1250822512637</v>
       </c>
     </row>
     <row r="16">
@@ -615,10 +615,10 @@
         <v>38487</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>71.72916689551374</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>307.6276947554144</v>
       </c>
     </row>
     <row r="17">
@@ -626,10 +626,10 @@
         <v>38494</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>49.52876982530729</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>207.7216895924848</v>
       </c>
     </row>
     <row r="18">
@@ -637,10 +637,10 @@
         <v>38501</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>62.3870836582288</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>282.1812468481443</v>
       </c>
     </row>
     <row r="19">
@@ -648,10 +648,10 @@
         <v>38508</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>17.3163181737962</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>85.2829193704211</v>
       </c>
     </row>
     <row r="20">
@@ -4091,10 +4091,10 @@
         <v>40699</v>
       </c>
       <c r="B332" t="n">
-        <v>0</v>
+        <v>49.53641628222108</v>
       </c>
       <c r="C332" t="n">
-        <v>0</v>
+        <v>195.6177744368306</v>
       </c>
     </row>
     <row r="333">
@@ -4102,10 +4102,10 @@
         <v>40706</v>
       </c>
       <c r="B333" t="n">
-        <v>0</v>
+        <v>67.65603271884665</v>
       </c>
       <c r="C333" t="n">
-        <v>0</v>
+        <v>265.4257390016767</v>
       </c>
     </row>
     <row r="334">
@@ -4113,10 +4113,10 @@
         <v>40713</v>
       </c>
       <c r="B334" t="n">
-        <v>0</v>
+        <v>53.43321041568568</v>
       </c>
       <c r="C334" t="n">
-        <v>0</v>
+        <v>180.5277599601374</v>
       </c>
     </row>
     <row r="335">
@@ -4124,10 +4124,10 @@
         <v>40720</v>
       </c>
       <c r="B335" t="n">
-        <v>0</v>
+        <v>51.88458076800471</v>
       </c>
       <c r="C335" t="n">
-        <v>0</v>
+        <v>185.3590561792269</v>
       </c>
     </row>
     <row r="336">
@@ -4135,10 +4135,10 @@
         <v>40727</v>
       </c>
       <c r="B336" t="n">
-        <v>0</v>
+        <v>22.99160156496697</v>
       </c>
       <c r="C336" t="n">
-        <v>0</v>
+        <v>82.42496309863617</v>
       </c>
     </row>
     <row r="337">
@@ -4146,10 +4146,10 @@
         <v>40734</v>
       </c>
       <c r="B337" t="n">
-        <v>0</v>
+        <v>90.35570131241732</v>
       </c>
       <c r="C337" t="n">
-        <v>0</v>
+        <v>312.9842346499702</v>
       </c>
     </row>
     <row r="338">
@@ -4157,10 +4157,10 @@
         <v>40741</v>
       </c>
       <c r="B338" t="n">
-        <v>0</v>
+        <v>66.47221519592834</v>
       </c>
       <c r="C338" t="n">
-        <v>0</v>
+        <v>236.0801356833313</v>
       </c>
     </row>
     <row r="339">
@@ -4168,10 +4168,10 @@
         <v>40748</v>
       </c>
       <c r="B339" t="n">
-        <v>0</v>
+        <v>63.49660768735646</v>
       </c>
       <c r="C339" t="n">
-        <v>0</v>
+        <v>227.3674781209431</v>
       </c>
     </row>
     <row r="340">
@@ -4179,10 +4179,10 @@
         <v>40755</v>
       </c>
       <c r="B340" t="n">
-        <v>0</v>
+        <v>71.00953652726186</v>
       </c>
       <c r="C340" t="n">
-        <v>0</v>
+        <v>292.6441106717706</v>
       </c>
     </row>
     <row r="341">
@@ -4762,10 +4762,10 @@
         <v>41126</v>
       </c>
       <c r="B393" t="n">
-        <v>0</v>
+        <v>52.3238815982878</v>
       </c>
       <c r="C393" t="n">
-        <v>0</v>
+        <v>184.4766616097709</v>
       </c>
     </row>
     <row r="394">
@@ -4773,10 +4773,10 @@
         <v>41133</v>
       </c>
       <c r="B394" t="n">
-        <v>0</v>
+        <v>81.74441741544337</v>
       </c>
       <c r="C394" t="n">
-        <v>0</v>
+        <v>284.273573943435</v>
       </c>
     </row>
     <row r="395">
@@ -4784,10 +4784,10 @@
         <v>41140</v>
       </c>
       <c r="B395" t="n">
-        <v>0</v>
+        <v>66.50176335058171</v>
       </c>
       <c r="C395" t="n">
-        <v>0</v>
+        <v>255.997714289286</v>
       </c>
     </row>
     <row r="396">
@@ -4795,10 +4795,10 @@
         <v>41147</v>
       </c>
       <c r="B396" t="n">
-        <v>0</v>
+        <v>54.39357174783888</v>
       </c>
       <c r="C396" t="n">
-        <v>0</v>
+        <v>208.9845211338032</v>
       </c>
     </row>
     <row r="397">
@@ -4806,10 +4806,10 @@
         <v>41154</v>
       </c>
       <c r="B397" t="n">
-        <v>0</v>
+        <v>55.33902895397608</v>
       </c>
       <c r="C397" t="n">
-        <v>0</v>
+        <v>211.6259761430322</v>
       </c>
     </row>
     <row r="398">
@@ -5004,10 +5004,10 @@
         <v>41280</v>
       </c>
       <c r="B415" t="n">
-        <v>0</v>
+        <v>89.72959203905191</v>
       </c>
       <c r="C415" t="n">
-        <v>0</v>
+        <v>270.8278930788219</v>
       </c>
     </row>
     <row r="416">
@@ -5015,10 +5015,10 @@
         <v>41287</v>
       </c>
       <c r="B416" t="n">
-        <v>0</v>
+        <v>89.95104541581306</v>
       </c>
       <c r="C416" t="n">
-        <v>0</v>
+        <v>251.9425414092616</v>
       </c>
     </row>
     <row r="417">
@@ -5026,10 +5026,10 @@
         <v>41294</v>
       </c>
       <c r="B417" t="n">
-        <v>0</v>
+        <v>95.8267613971673</v>
       </c>
       <c r="C417" t="n">
-        <v>0</v>
+        <v>319.263771972892</v>
       </c>
     </row>
     <row r="418">
@@ -5037,10 +5037,10 @@
         <v>41301</v>
       </c>
       <c r="B418" t="n">
-        <v>0</v>
+        <v>112.96153866474</v>
       </c>
       <c r="C418" t="n">
-        <v>0</v>
+        <v>341.0152590276041</v>
       </c>
     </row>
     <row r="419">
@@ -5048,10 +5048,10 @@
         <v>41308</v>
       </c>
       <c r="B419" t="n">
-        <v>0</v>
+        <v>57.09796487215972</v>
       </c>
       <c r="C419" t="n">
-        <v>0</v>
+        <v>186.1405822876012</v>
       </c>
     </row>
     <row r="420">
@@ -5433,10 +5433,10 @@
         <v>41553</v>
       </c>
       <c r="B454" t="n">
-        <v>0</v>
+        <v>41.09573104696092</v>
       </c>
       <c r="C454" t="n">
-        <v>0</v>
+        <v>159.770758626355</v>
       </c>
     </row>
     <row r="455">
@@ -5444,10 +5444,10 @@
         <v>41560</v>
       </c>
       <c r="B455" t="n">
-        <v>0</v>
+        <v>80.68603951886227</v>
       </c>
       <c r="C455" t="n">
-        <v>0</v>
+        <v>310.0930647615996</v>
       </c>
     </row>
     <row r="456">
@@ -5455,10 +5455,10 @@
         <v>41567</v>
       </c>
       <c r="B456" t="n">
-        <v>0</v>
+        <v>73.16593037566265</v>
       </c>
       <c r="C456" t="n">
-        <v>0</v>
+        <v>288.1524420535704</v>
       </c>
     </row>
     <row r="457">
@@ -5466,10 +5466,10 @@
         <v>41574</v>
       </c>
       <c r="B457" t="n">
-        <v>0</v>
+        <v>40.61371398592992</v>
       </c>
       <c r="C457" t="n">
-        <v>0</v>
+        <v>152.3069586493511</v>
       </c>
     </row>
     <row r="458">
@@ -5477,10 +5477,10 @@
         <v>41581</v>
       </c>
       <c r="B458" t="n">
-        <v>0</v>
+        <v>43.84693099188979</v>
       </c>
       <c r="C458" t="n">
-        <v>0</v>
+        <v>171.1594880868015</v>
       </c>
     </row>
     <row r="459">
@@ -6049,10 +6049,10 @@
         <v>41945</v>
       </c>
       <c r="B510" t="n">
-        <v>0</v>
+        <v>23.46702885390863</v>
       </c>
       <c r="C510" t="n">
-        <v>0</v>
+        <v>94.03088363335192</v>
       </c>
     </row>
     <row r="511">
@@ -6060,10 +6060,10 @@
         <v>41952</v>
       </c>
       <c r="B511" t="n">
-        <v>0</v>
+        <v>71.49740029740083</v>
       </c>
       <c r="C511" t="n">
-        <v>0</v>
+        <v>301.6934536168001</v>
       </c>
     </row>
     <row r="512">
@@ -6071,10 +6071,10 @@
         <v>41959</v>
       </c>
       <c r="B512" t="n">
-        <v>0</v>
+        <v>81.13655678641017</v>
       </c>
       <c r="C512" t="n">
-        <v>0</v>
+        <v>307.490211741934</v>
       </c>
     </row>
     <row r="513">
@@ -6082,10 +6082,10 @@
         <v>41966</v>
       </c>
       <c r="B513" t="n">
-        <v>0</v>
+        <v>86.95960832714304</v>
       </c>
       <c r="C513" t="n">
-        <v>0</v>
+        <v>309.3345309898328</v>
       </c>
     </row>
     <row r="514">
@@ -6093,10 +6093,10 @@
         <v>41973</v>
       </c>
       <c r="B514" t="n">
-        <v>0</v>
+        <v>87.81513156460471</v>
       </c>
       <c r="C514" t="n">
-        <v>0</v>
+        <v>299.7865204695406</v>
       </c>
     </row>
     <row r="515">
@@ -6104,10 +6104,10 @@
         <v>41980</v>
       </c>
       <c r="B515" t="n">
-        <v>0</v>
+        <v>90.34599235316769</v>
       </c>
       <c r="C515" t="n">
-        <v>0</v>
+        <v>314.4756660099475</v>
       </c>
     </row>
     <row r="516">
@@ -6115,10 +6115,10 @@
         <v>41987</v>
       </c>
       <c r="B516" t="n">
-        <v>0</v>
+        <v>47.05255936190578</v>
       </c>
       <c r="C516" t="n">
-        <v>0</v>
+        <v>149.3019578533691</v>
       </c>
     </row>
     <row r="517">
@@ -6126,10 +6126,10 @@
         <v>41994</v>
       </c>
       <c r="B517" t="n">
-        <v>0</v>
+        <v>77.77085003318966</v>
       </c>
       <c r="C517" t="n">
-        <v>0</v>
+        <v>251.7955005061134</v>
       </c>
     </row>
     <row r="518">
@@ -6137,10 +6137,10 @@
         <v>42001</v>
       </c>
       <c r="B518" t="n">
-        <v>0</v>
+        <v>72.25796910256551</v>
       </c>
       <c r="C518" t="n">
-        <v>0</v>
+        <v>232.5003231081802</v>
       </c>
     </row>
     <row r="519">
@@ -6148,10 +6148,10 @@
         <v>42008</v>
       </c>
       <c r="B519" t="n">
-        <v>0</v>
+        <v>19.28184452671116</v>
       </c>
       <c r="C519" t="n">
-        <v>0</v>
+        <v>62.06945016401679</v>
       </c>
     </row>
     <row r="520">
@@ -6819,10 +6819,10 @@
         <v>42435</v>
       </c>
       <c r="B580" t="n">
-        <v>0</v>
+        <v>65.22965875316933</v>
       </c>
       <c r="C580" t="n">
-        <v>0</v>
+        <v>264.1628533872337</v>
       </c>
     </row>
     <row r="581">
@@ -6830,10 +6830,10 @@
         <v>42442</v>
       </c>
       <c r="B581" t="n">
-        <v>0</v>
+        <v>78.63398330660458</v>
       </c>
       <c r="C581" t="n">
-        <v>0</v>
+        <v>311.2252101021177</v>
       </c>
     </row>
     <row r="582">
@@ -6841,10 +6841,10 @@
         <v>42449</v>
       </c>
       <c r="B582" t="n">
-        <v>0</v>
+        <v>66.90199116984282</v>
       </c>
       <c r="C582" t="n">
-        <v>0</v>
+        <v>272.1300033031059</v>
       </c>
     </row>
     <row r="583">
@@ -6852,10 +6852,10 @@
         <v>42456</v>
       </c>
       <c r="B583" t="n">
-        <v>0</v>
+        <v>71.65319751390444</v>
       </c>
       <c r="C583" t="n">
-        <v>0</v>
+        <v>313.1579700885604</v>
       </c>
     </row>
     <row r="584">
@@ -6863,10 +6863,10 @@
         <v>42463</v>
       </c>
       <c r="B584" t="n">
-        <v>0</v>
+        <v>43.94523252154485</v>
       </c>
       <c r="C584" t="n">
-        <v>0</v>
+        <v>159.7777856250967</v>
       </c>
     </row>
     <row r="585">
@@ -7105,10 +7105,10 @@
         <v>42617</v>
       </c>
       <c r="B606" t="n">
-        <v>0</v>
+        <v>35.94738360435686</v>
       </c>
       <c r="C606" t="n">
-        <v>0</v>
+        <v>131.2784698312382</v>
       </c>
     </row>
     <row r="607">
@@ -7116,10 +7116,10 @@
         <v>42624</v>
       </c>
       <c r="B607" t="n">
-        <v>0</v>
+        <v>68.58709693293379</v>
       </c>
       <c r="C607" t="n">
-        <v>0</v>
+        <v>259.9260202829755</v>
       </c>
     </row>
     <row r="608">
@@ -7127,10 +7127,10 @@
         <v>42631</v>
       </c>
       <c r="B608" t="n">
-        <v>0</v>
+        <v>58.7103703390521</v>
       </c>
       <c r="C608" t="n">
-        <v>0</v>
+        <v>243.0631912795414</v>
       </c>
     </row>
     <row r="609">
@@ -7138,10 +7138,10 @@
         <v>42638</v>
       </c>
       <c r="B609" t="n">
-        <v>0</v>
+        <v>49.90356429910386</v>
       </c>
       <c r="C609" t="n">
-        <v>0</v>
+        <v>195.2176278500575</v>
       </c>
     </row>
     <row r="610">
@@ -7149,10 +7149,10 @@
         <v>42645</v>
       </c>
       <c r="B610" t="n">
-        <v>0</v>
+        <v>43.8055337938171</v>
       </c>
       <c r="C610" t="n">
-        <v>0</v>
+        <v>177.4631878721851</v>
       </c>
     </row>
   </sheetData>

--- a/heliostrome/jip_project/results/weekly_Pump_Data.xlsx
+++ b/heliostrome/jip_project/results/weekly_Pump_Data.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>SCB_10_150_180_BL (4,1)</t>
+          <t>Pump 0</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SCB_10_150_180_BL (5,1)</t>
+          <t>Pump 1</t>
         </is>
       </c>
     </row>

--- a/heliostrome/jip_project/results/weekly_Pump_Data.xlsx
+++ b/heliostrome/jip_project/results/weekly_Pump_Data.xlsx
@@ -1,40 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/sparijs_tudelft_nl/Documents/Documents/helios/heliostrome/heliostrome/jip_project/results/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_08B5F66C5D504E8F6E38F4F74970BEFBADB9994F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D87BF6AA-7AB0-430E-A23B-B7B8C90E2D06}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Pump 1</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,96 +63,47 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -426,453 +391,448 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Pump 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>38354</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>31.45062297917913</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>38361</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>92.91788352262779</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>38368</v>
       </c>
-      <c r="B4" t="n">
-        <v>99.16777452419231</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="B4">
+        <v>99.167774524192311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>38375</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>101.3294719604979</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>38382</v>
       </c>
-      <c r="B6" t="n">
-        <v>107.8529371167515</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="B6">
+        <v>107.85293711675151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>38389</v>
       </c>
-      <c r="B7" t="n">
-        <v>87.04229623865125</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="B7">
+        <v>87.042296238651247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>38396</v>
       </c>
-      <c r="B8" t="n">
-        <v>89.43834202308427</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="B8">
+        <v>89.438342023084275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>38403</v>
       </c>
-      <c r="B9" t="n">
-        <v>81.40379101139183</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="B9">
+        <v>81.403791011391831</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>38410</v>
       </c>
-      <c r="B10" t="n">
-        <v>86.83916451945294</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="B10">
+        <v>86.839164519452936</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>38417</v>
       </c>
-      <c r="B11" t="n">
-        <v>78.12880560825116</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="B11">
+        <v>78.128805608251156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>38424</v>
       </c>
-      <c r="B12" t="n">
-        <v>78.63398330660458</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="B12">
+        <v>78.633983306604577</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>38431</v>
       </c>
-      <c r="B13" t="n">
-        <v>66.90199116984282</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="B13">
+        <v>66.901991169842816</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>38438</v>
       </c>
-      <c r="B14" t="n">
-        <v>71.65319751390444</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="B14">
+        <v>71.653197513904445</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>38445</v>
       </c>
-      <c r="B15" t="n">
-        <v>77.82734190423957</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="B15">
+        <v>77.827341904239574</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>38452</v>
       </c>
-      <c r="B16" t="n">
-        <v>70.47520533542121</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="B16">
+        <v>70.475205335421208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>38459</v>
       </c>
-      <c r="B17" t="n">
-        <v>76.36126498340384</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="B17">
+        <v>76.361264983403842</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>38466</v>
       </c>
-      <c r="B18" t="n">
-        <v>67.29923937340671</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="B18">
+        <v>67.299239373406706</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>38473</v>
       </c>
-      <c r="B19" t="n">
-        <v>68.12926509896874</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="B19">
+        <v>68.129265098968744</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>38480</v>
       </c>
-      <c r="B20" t="n">
-        <v>76.68185093707488</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="B20">
+        <v>76.681850937074884</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>38487</v>
       </c>
-      <c r="B21" t="n">
-        <v>71.72916689551374</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="B21">
+        <v>71.729166895513742</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>38494</v>
       </c>
-      <c r="B22" t="n">
-        <v>49.52876982530729</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="B22">
+        <v>49.528769825307293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>38501</v>
       </c>
-      <c r="B23" t="n">
-        <v>62.3870836582288</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="B23">
+        <v>62.387083658228804</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>38508</v>
       </c>
-      <c r="B24" t="n">
-        <v>66.85273445601729</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="B24">
+        <v>66.852734456017288</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>38515</v>
       </c>
-      <c r="B25" t="n">
-        <v>67.65603271884665</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="B25">
+        <v>67.656032718846646</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>38522</v>
       </c>
-      <c r="B26" t="n">
-        <v>53.43321041568568</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="B26">
+        <v>53.433210415685679</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>38529</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>51.88458076800471</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>38536</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>22.99160156496697</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>38543</v>
       </c>
-      <c r="B29" t="n">
-        <v>90.35570131241732</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="B29">
+        <v>90.355701312417324</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>38550</v>
       </c>
-      <c r="B30" t="n">
-        <v>66.47221519592834</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="B30">
+        <v>66.472215195928342</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <v>38557</v>
       </c>
-      <c r="B31" t="n">
-        <v>63.49660768735646</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+      <c r="B31">
+        <v>63.496607687356459</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <v>38564</v>
       </c>
-      <c r="B32" t="n">
-        <v>71.00953652726186</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+      <c r="B32">
+        <v>71.009536527261858</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>38571</v>
       </c>
-      <c r="B33" t="n">
-        <v>75.80707379539466</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="B33">
+        <v>75.807073795394658</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
         <v>38578</v>
       </c>
-      <c r="B34" t="n">
-        <v>64.88622290419872</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="B34">
+        <v>64.886222904198718</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
         <v>38585</v>
       </c>
-      <c r="B35" t="n">
-        <v>72.99376911447581</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="B35">
+        <v>72.993769114475811</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
         <v>38592</v>
       </c>
-      <c r="B36" t="n">
-        <v>64.28642120848137</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+      <c r="B36">
+        <v>64.286421208481372</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
         <v>38599</v>
       </c>
-      <c r="B37" t="n">
-        <v>68.27655964793412</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="B37">
+        <v>68.276559647934121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
         <v>38606</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>68.58709693293379</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
         <v>38613</v>
       </c>
-      <c r="B39" t="n">
-        <v>58.7103703390521</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="B39">
+        <v>58.710370339052098</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
         <v>38620</v>
       </c>
-      <c r="B40" t="n">
-        <v>49.90356429910386</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="B40">
+        <v>49.903564299103863</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
         <v>38627</v>
       </c>
-      <c r="B41" t="n">
-        <v>64.57926143799801</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="B41">
+        <v>64.579261437998014</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
         <v>38634</v>
       </c>
-      <c r="B42" t="n">
-        <v>55.63102228961925</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="B42">
+        <v>55.631022289619253</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
         <v>38641</v>
       </c>
-      <c r="B43" t="n">
-        <v>74.0111371190763</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="B43">
+        <v>74.011137119076295</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
         <v>38648</v>
       </c>
-      <c r="B44" t="n">
-        <v>63.21702429020411</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="B44">
+        <v>63.217024290204108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
         <v>38655</v>
       </c>
-      <c r="B45" t="n">
-        <v>54.54812209284061</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="B45">
+        <v>54.548122092840607</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
         <v>38662</v>
       </c>
-      <c r="B46" t="n">
-        <v>79.28708621632582</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+      <c r="B46">
+        <v>79.287086216325818</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
         <v>38669</v>
       </c>
-      <c r="B47" t="n">
-        <v>73.1401062016332</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="B47">
+        <v>73.140106201633202</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
         <v>38676</v>
       </c>
-      <c r="B48" t="n">
-        <v>84.45887187704278</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="B48">
+        <v>84.458871877042782</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
         <v>38683</v>
       </c>
-      <c r="B49" t="n">
-        <v>88.11528137209748</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="B49">
+        <v>88.115281372097485</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
         <v>38690</v>
       </c>
-      <c r="B50" t="n">
-        <v>90.41633448273662</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="B50">
+        <v>90.416334482736616</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
         <v>38697</v>
       </c>
-      <c r="B51" t="n">
-        <v>75.10998543853827</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="B51">
+        <v>75.109985438538274</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
         <v>38704</v>
       </c>
-      <c r="B52" t="n">
-        <v>47.37882257508979</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="B52">
+        <v>47.378822575089792</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
         <v>38711</v>
       </c>
-      <c r="B53" t="n">
-        <v>95.43860002682536</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="B53">
+        <v>95.438600026825355</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
         <v>38718</v>
       </c>
-      <c r="B54" t="n">
-        <v>35.46716550010228</v>
+      <c r="B54">
+        <v>35.467165500102283</v>
       </c>
     </row>
   </sheetData>
